--- a/dist/document/dest/2020/10/khai.xlsx
+++ b/dist/document/dest/2020/10/khai.xlsx
@@ -12,18 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="38">
   <si>
     <t>Công ty TNHH Dược Phẩm Hoàng Trân</t>
   </si>
   <si>
-    <t>Trình Dược Viên: Khải</t>
+    <t>TDV: Khải</t>
   </si>
   <si>
     <t>BẢNG CHIẾT KHẤU TỔNG HỢP</t>
   </si>
   <si>
-    <t>01/09 -&gt; 30/09/2020</t>
+    <t>27/10/2020</t>
   </si>
   <si>
     <t>STT</t>
@@ -47,12 +47,12 @@
     <t>TCK</t>
   </si>
   <si>
-    <t>Aluantine (Almagate 500mg)</t>
-  </si>
-  <si>
     <t>BS One (Omega3 Fish Oil 1000mg)</t>
   </si>
   <si>
+    <t>Bonzacim (Rosuvastatin 10mg)</t>
+  </si>
+  <si>
     <t>Cardorite (Rosuvastatin 20mg)</t>
   </si>
   <si>
@@ -68,15 +68,15 @@
     <t>Cimrinat (Clarithomycin 500mg)</t>
   </si>
   <si>
-    <t>Esotrax (Esomeprazole 20mg)</t>
-  </si>
-  <si>
     <t>Fagendol (Flunarizine 5mg)</t>
   </si>
   <si>
     <t>Lucass 200 (Cefpodoxime)</t>
   </si>
   <si>
+    <t>Medi-Levosulpirid (Levosulpiride 25mg)</t>
+  </si>
+  <si>
     <t>Noraquick (Gabapentin 300mg)</t>
   </si>
   <si>
@@ -107,22 +107,22 @@
     <t>TÊN THUỐC/BS</t>
   </si>
   <si>
+    <t>Lý Thanh</t>
+  </si>
+  <si>
+    <t>Lãm</t>
+  </si>
+  <si>
+    <t>Lý Văn</t>
+  </si>
+  <si>
+    <t>Phái</t>
+  </si>
+  <si>
     <t>Trần Thị</t>
   </si>
   <si>
     <t>Diễm</t>
-  </si>
-  <si>
-    <t>Lý Thanh</t>
-  </si>
-  <si>
-    <t>Lãm</t>
-  </si>
-  <si>
-    <t>Lý Văn</t>
-  </si>
-  <si>
-    <t>Phái</t>
   </si>
   <si>
     <t>TỔNG CỘNG</t>
@@ -579,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -587,7 +587,7 @@
     <col min="3" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -665,19 +665,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="10">
-        <v>0</v>
+        <v>4799</v>
       </c>
       <c r="D6" s="10">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="E6" s="10">
-        <v>0</v>
+        <v>19196000</v>
       </c>
       <c r="F6" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G6" s="10">
-        <v>0</v>
+        <v>8638200</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -688,19 +688,19 @@
         <v>12</v>
       </c>
       <c r="C7" s="10">
-        <v>1575</v>
+        <v>735</v>
       </c>
       <c r="D7" s="10">
-        <v>4000</v>
+        <v>8900</v>
       </c>
       <c r="E7" s="10">
-        <v>6300000</v>
+        <v>6541500</v>
       </c>
       <c r="F7" s="10">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G7" s="10">
-        <v>2835000</v>
+        <v>3597825</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -711,19 +711,19 @@
         <v>13</v>
       </c>
       <c r="C8" s="10">
-        <v>948</v>
+        <v>5916</v>
       </c>
       <c r="D8" s="10">
         <v>13000</v>
       </c>
       <c r="E8" s="10">
-        <v>12324000</v>
+        <v>76908000</v>
       </c>
       <c r="F8" s="10">
         <v>55</v>
       </c>
       <c r="G8" s="10">
-        <v>6778200</v>
+        <v>42299400</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -734,19 +734,19 @@
         <v>14</v>
       </c>
       <c r="C9" s="10">
-        <v>0</v>
+        <v>2548</v>
       </c>
       <c r="D9" s="10">
         <v>9000</v>
       </c>
       <c r="E9" s="10">
-        <v>0</v>
+        <v>22932000</v>
       </c>
       <c r="F9" s="10">
         <v>55</v>
       </c>
       <c r="G9" s="10">
-        <v>0</v>
+        <v>12612600</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -757,19 +757,19 @@
         <v>15</v>
       </c>
       <c r="C10" s="10">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D10" s="10">
         <v>12000</v>
       </c>
       <c r="E10" s="10">
-        <v>0</v>
+        <v>1632000</v>
       </c>
       <c r="F10" s="10">
         <v>42</v>
       </c>
       <c r="G10" s="10">
-        <v>0</v>
+        <v>685440</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -780,19 +780,19 @@
         <v>16</v>
       </c>
       <c r="C11" s="10">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D11" s="10">
         <v>3000</v>
       </c>
       <c r="E11" s="10">
-        <v>0</v>
+        <v>540000</v>
       </c>
       <c r="F11" s="10">
         <v>55</v>
       </c>
       <c r="G11" s="10">
-        <v>0</v>
+        <v>297000</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -803,19 +803,19 @@
         <v>17</v>
       </c>
       <c r="C12" s="10">
-        <v>40</v>
+        <v>1040</v>
       </c>
       <c r="D12" s="10">
         <v>24000</v>
       </c>
       <c r="E12" s="10">
-        <v>960000</v>
+        <v>24960000</v>
       </c>
       <c r="F12" s="10">
         <v>52</v>
       </c>
       <c r="G12" s="10">
-        <v>499200</v>
+        <v>12979200</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -826,19 +826,19 @@
         <v>18</v>
       </c>
       <c r="C13" s="10">
-        <v>0</v>
+        <v>3544</v>
       </c>
       <c r="D13" s="10">
-        <v>10800</v>
+        <v>2600</v>
       </c>
       <c r="E13" s="10">
-        <v>0</v>
+        <v>9214400</v>
       </c>
       <c r="F13" s="10">
         <v>50</v>
       </c>
       <c r="G13" s="10">
-        <v>0</v>
+        <v>4607200</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -849,19 +849,19 @@
         <v>19</v>
       </c>
       <c r="C14" s="10">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="D14" s="10">
-        <v>2600</v>
+        <v>14700</v>
       </c>
       <c r="E14" s="10">
-        <v>156000</v>
+        <v>2646000</v>
       </c>
       <c r="F14" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G14" s="10">
-        <v>78000</v>
+        <v>1428840</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -872,19 +872,19 @@
         <v>20</v>
       </c>
       <c r="C15" s="10">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D15" s="10">
-        <v>14700</v>
+        <v>2600</v>
       </c>
       <c r="E15" s="10">
-        <v>0</v>
+        <v>624000</v>
       </c>
       <c r="F15" s="10">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G15" s="10">
-        <v>0</v>
+        <v>249600</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -895,19 +895,19 @@
         <v>21</v>
       </c>
       <c r="C16" s="10">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="D16" s="10">
         <v>6000</v>
       </c>
       <c r="E16" s="10">
-        <v>0</v>
+        <v>1890000</v>
       </c>
       <c r="F16" s="10">
         <v>54</v>
       </c>
       <c r="G16" s="10">
-        <v>0</v>
+        <v>1020600</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -918,19 +918,19 @@
         <v>22</v>
       </c>
       <c r="C17" s="10">
-        <v>2007</v>
+        <v>4602</v>
       </c>
       <c r="D17" s="10">
         <v>3600</v>
       </c>
       <c r="E17" s="10">
-        <v>7225200</v>
+        <v>16567200</v>
       </c>
       <c r="F17" s="10">
         <v>35</v>
       </c>
       <c r="G17" s="10">
-        <v>2528820</v>
+        <v>5798520</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -941,19 +941,19 @@
         <v>23</v>
       </c>
       <c r="C18" s="10">
-        <v>0</v>
+        <v>3194</v>
       </c>
       <c r="D18" s="10">
         <v>2900</v>
       </c>
       <c r="E18" s="10">
-        <v>0</v>
+        <v>9262600</v>
       </c>
       <c r="F18" s="10">
         <v>45</v>
       </c>
       <c r="G18" s="10">
-        <v>0</v>
+        <v>4168170</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -964,19 +964,19 @@
         <v>24</v>
       </c>
       <c r="C19" s="10">
-        <v>0</v>
+        <v>15163</v>
       </c>
       <c r="D19" s="10">
         <v>15000</v>
       </c>
       <c r="E19" s="10">
-        <v>0</v>
+        <v>227445000</v>
       </c>
       <c r="F19" s="10">
         <v>52</v>
       </c>
       <c r="G19" s="10">
-        <v>0</v>
+        <v>118271400</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -984,22 +984,22 @@
         <v>15</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="10">
-        <v>300</v>
+        <v>1414</v>
       </c>
       <c r="D20" s="10">
-        <v>3300</v>
+        <v>15000</v>
       </c>
       <c r="E20" s="10">
-        <v>990000</v>
+        <v>21210000</v>
       </c>
       <c r="F20" s="10">
         <v>55</v>
       </c>
       <c r="G20" s="10">
-        <v>544500</v>
+        <v>11665500</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1007,57 +1007,80 @@
         <v>16</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="10">
+        <v>5310</v>
+      </c>
+      <c r="D21" s="10">
+        <v>3300</v>
+      </c>
+      <c r="E21" s="10">
+        <v>17523000</v>
+      </c>
+      <c r="F21" s="10">
+        <v>55</v>
+      </c>
+      <c r="G21" s="10">
+        <v>9637650</v>
+      </c>
+    </row>
+    <row r="22" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>17</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="10">
-        <v>1094</v>
-      </c>
-      <c r="D21" s="10">
+      <c r="C22" s="10">
+        <v>11787</v>
+      </c>
+      <c r="D22" s="10">
         <v>6926</v>
       </c>
-      <c r="E21" s="10">
-        <v>7577044</v>
-      </c>
-      <c r="F21" s="10">
+      <c r="E22" s="10">
+        <v>81636762</v>
+      </c>
+      <c r="F22" s="10">
         <v>40</v>
       </c>
-      <c r="G21" s="10">
-        <v>3030817.6</v>
-      </c>
-    </row>
-    <row r="22" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="G22" s="10">
+        <v>32654704.8</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="11">
-        <v>6024</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11">
-        <v>35532244</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11">
-        <v>16294537.6</v>
-      </c>
-    </row>
-    <row r="23" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="11">
+        <v>61103</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11">
+        <v>540728462</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11">
+        <v>270611849.8</v>
+      </c>
+    </row>
+    <row r="24" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.45" bottom="0.45" header="0.2" footer="0.2"/>
@@ -1067,7 +1090,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E51"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="5" customWidth="1"/>
@@ -1135,7 +1158,7 @@
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="14">
-        <v>0</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1150,7 +1173,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="10">
-        <v>0</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1163,7 +1186,7 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="14">
-        <v>1575</v>
+        <v>735</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1178,7 +1201,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="10">
-        <v>0</v>
+        <v>675</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1193,71 +1216,69 @@
         <v>34</v>
       </c>
       <c r="E10" s="10">
-        <v>1575</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9">
+      <c r="A11" s="13">
         <v>3</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
+      <c r="B11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14">
+        <v>5916</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>3</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14">
-        <v>948</v>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="10">
+        <v>5368</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13" s="10">
-        <v>0</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9">
-        <v>2</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="10">
-        <v>702</v>
+      <c r="A14" s="13">
+        <v>4</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14">
+        <v>2548</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>35</v>
@@ -1266,56 +1287,56 @@
         <v>36</v>
       </c>
       <c r="E15" s="10">
-        <v>246</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>4</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14">
-        <v>0</v>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="10">
+        <v>2303</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E17" s="10">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9">
-        <v>2</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0</v>
+      <c r="A18" s="13">
+        <v>5</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14">
+        <v>136</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>35</v>
@@ -1324,63 +1345,63 @@
         <v>36</v>
       </c>
       <c r="E19" s="10">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>5</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14">
-        <v>0</v>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="10">
+        <v>40</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0</v>
+      <c r="A21" s="13">
+        <v>6</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14">
+        <v>180</v>
       </c>
     </row>
     <row r="22" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22" s="10">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="14">
-        <v>0</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1389,84 +1410,84 @@
         <v>1</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E24" s="10">
-        <v>0</v>
+        <v>920</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>7</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14">
-        <v>40</v>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9">
+        <v>2</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="10">
+        <v>120</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9">
-        <v>1</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="10">
-        <v>0</v>
+      <c r="A26" s="13">
+        <v>8</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14">
+        <v>3544</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E27" s="10">
-        <v>0</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="28" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E28" s="10">
-        <v>40</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="14">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1475,26 +1496,26 @@
         <v>1</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E30" s="10">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="14">
-        <v>60</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1509,84 +1530,82 @@
         <v>34</v>
       </c>
       <c r="E32" s="10">
-        <v>60</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9">
-        <v>2</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="10">
-        <v>0</v>
+      <c r="A33" s="13">
+        <v>11</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14">
+        <v>315</v>
       </c>
     </row>
     <row r="34" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
-        <v>10</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14">
-        <v>0</v>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9">
+        <v>1</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="10">
+        <v>315</v>
       </c>
     </row>
     <row r="35" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9">
-        <v>1</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="A35" s="13">
+        <v>12</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14">
+        <v>4602</v>
+      </c>
+    </row>
+    <row r="36" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9">
+        <v>1</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
-        <v>11</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="14">
-        <v>0</v>
+      <c r="E36" s="10">
+        <v>4602</v>
       </c>
     </row>
     <row r="37" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9">
-        <v>1</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="10">
-        <v>0</v>
+      <c r="A37" s="13">
+        <v>13</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14">
+        <v>3194</v>
       </c>
     </row>
     <row r="38" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>35</v>
@@ -1595,54 +1614,56 @@
         <v>36</v>
       </c>
       <c r="E38" s="10">
-        <v>0</v>
+        <v>780</v>
       </c>
     </row>
     <row r="39" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
-        <v>12</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14">
-        <v>2007</v>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9">
+        <v>2</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="10">
+        <v>2414</v>
       </c>
     </row>
     <row r="40" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9">
-        <v>1</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="10">
-        <v>2007</v>
+      <c r="A40" s="13">
+        <v>14</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14">
+        <v>16577</v>
       </c>
     </row>
     <row r="41" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
-        <v>13</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14">
-        <v>0</v>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9">
+        <v>1</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="10">
+        <v>429</v>
       </c>
     </row>
     <row r="42" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>31</v>
@@ -1651,13 +1672,13 @@
         <v>32</v>
       </c>
       <c r="E42" s="10">
-        <v>0</v>
+        <v>15163</v>
       </c>
     </row>
     <row r="43" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>33</v>
@@ -1666,173 +1687,100 @@
         <v>34</v>
       </c>
       <c r="E43" s="10">
-        <v>0</v>
+        <v>985</v>
       </c>
     </row>
     <row r="44" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9">
-        <v>3</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="10">
-        <v>0</v>
+      <c r="A44" s="13">
+        <v>15</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14">
+        <v>5310</v>
       </c>
     </row>
     <row r="45" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
-        <v>14</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="14">
-        <v>0</v>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9">
+        <v>1</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="10">
+        <v>5310</v>
       </c>
     </row>
     <row r="46" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9">
-        <v>1</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="10">
-        <v>0</v>
+      <c r="A46" s="13">
+        <v>16</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="14">
+        <v>11787</v>
       </c>
     </row>
     <row r="47" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E47" s="10">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E48" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
-        <v>15</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="14">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="50" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9">
-        <v>1</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="10">
-        <v>300</v>
-      </c>
-    </row>
+        <v>11767</v>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="11">
+        <v>61103</v>
+      </c>
+    </row>
+    <row r="50" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13">
-        <v>16</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="14">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="52" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9">
-        <v>1</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9">
-        <v>2</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" s="10">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="54" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="11">
-        <v>6024</v>
-      </c>
-    </row>
-    <row r="55" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+      <c r="A51" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="4"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -1840,21 +1788,21 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A49:D49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
